--- a/publications/summary.xlsx
+++ b/publications/summary.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473a16cd4e4b34e8/pro/staty_soccer/publications/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_5F992680025576DEE54878D6425DCE3A87471D5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A22285-CE6C-4A0B-A6A9-0252584D4F24}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+  <si>
+    <t>matchId</t>
+  </si>
   <si>
     <t>league</t>
   </si>
@@ -31,9 +28,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>matchId</t>
-  </si>
-  <si>
     <t>team_name</t>
   </si>
   <si>
@@ -64,242 +58,206 @@
     <t>story_url</t>
   </si>
   <si>
-    <t>GM0</t>
-  </si>
-  <si>
-    <t>Bundesliga 1</t>
-  </si>
-  <si>
-    <t>r9R4783B</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Bayern Munich: Un chiffre élevée de 19 buts marqués en première mi-temps lors des 10 derniers matchs. League : 1/526 | 5 champs : 1/8591</t>
-  </si>
-  <si>
-    <t>{'hat': 'Bayern Munich marquant des records en première mi-temps!', 'parag': 'Les Bayern Munich marquent 19 buts en première mi-temps durant leurs 10 derniers matchs : une performance exceptionnelle jamais atteinte auparavant dans les 5 grands championnats*', 'plot_title': 'Nombre de buts marqués en 1ère MT lors des 10 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023', 'datetime': '11-03-2023', 'team_name': 'Bayern Munich', 'opp_name': 'Augsburg', '-': '-'}</t>
-  </si>
-  <si>
-    <t>#BayernMunich #Augsburg #Bundesliga #Record #PerformancesExceptionnelles</t>
-  </si>
-  <si>
-    <t>post_r9R4783BH.jpg</t>
-  </si>
-  <si>
-    <t>story_r9R4783BH.jpg</t>
-  </si>
-  <si>
-    <t>SP0</t>
-  </si>
-  <si>
-    <t>La Liga Primera Division</t>
-  </si>
-  <si>
-    <t>ttLAWI02</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Barcelona: Un chiffre élevée de 35 buts marqués en seconde mi-temps à l'extérieur lors des 20 derniers matchs. League : 1/111 | 5 champs : 1/1395</t>
-  </si>
-  <si>
-    <t>{'hat': "Barça à l'attaque: 35 buts record en seconde mi-temps!", 'parag': "Les performances de Barcelone à l'extérieur sont spectaculaires : 35 buts marqués en seconde mi-temps lors des 20 derniers matchs, un exploit inégalé dans les 5 grands championnats*", 'plot_title': "Nombre de buts marqués en 2nd MT à l'extérieur lors des 20 derniers matchs", 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023', 'datetime': '12-03-2023', 'team_name': 'Barcelona', 'opp_name': 'Ath Bilbao', '-': '-'}</t>
-  </si>
-  <si>
-    <t>#Barcelona #AthBilbao #LaLigaPrimeraDivision #Record #Exploit</t>
-  </si>
-  <si>
-    <t>post_ttLAWI02A.jpg</t>
-  </si>
-  <si>
-    <t>story_ttLAWI02A.jpg</t>
+    <t>tOLqM7Tj</t>
+  </si>
+  <si>
+    <t>G2BCOzvI</t>
+  </si>
+  <si>
+    <t>p2s3iWCS</t>
+  </si>
+  <si>
+    <t>2iNthVos</t>
+  </si>
+  <si>
+    <t>2wET7ic9</t>
+  </si>
+  <si>
+    <t>z9Dxs4WS</t>
+  </si>
+  <si>
+    <t>zgsX893T</t>
+  </si>
+  <si>
+    <t>FR1</t>
   </si>
   <si>
     <t>EN1</t>
   </si>
   <si>
+    <t>EN0</t>
+  </si>
+  <si>
+    <t>IT0</t>
+  </si>
+  <si>
+    <t>Division 2</t>
+  </si>
+  <si>
     <t>Championship</t>
   </si>
   <si>
-    <t>hl8eYj6j</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Norwich: Un chiffre élevée de 27 buts marqués en première mi-temps à domicile lors des 20 derniers matchs. League : 6/291 | 5 champs : 4/1395</t>
-  </si>
-  <si>
-    <t>{'hat': 'Norwich: Domination Inouïe, des Buts à GoGo!', 'parag': 'Norwich a marqué une incroyable 27 buts en première mi-temps à domicile lors des 20 derniers matchs, une statistique rarement obtenue dans les cinq grands championnats!*', 'plot_title': 'Nombre de buts marqués en 1ère MT à domicile lors des 20 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023', 'datetime': '12-03-2023', 'team_name': 'Norwich', 'opp_name': 'Sunderland', '-': '-'}</t>
-  </si>
-  <si>
-    <t>#Norwich #Sunderland #Championship #DominationInouïe #ButsàGoGo</t>
-  </si>
-  <si>
-    <t>post_hl8eYj6jH.jpg</t>
-  </si>
-  <si>
-    <t>story_hl8eYj6jH.jpg</t>
-  </si>
-  <si>
-    <t>TK0</t>
-  </si>
-  <si>
-    <t>Futbol Ligi 1</t>
-  </si>
-  <si>
-    <t>YiRgry2P</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Istanbulspor</t>
-  </si>
-  <si>
-    <t>Sivasspor: Un chiffre élevée de 80 corners concédés en première mi-temps à l'extérieur lors des 20 derniers matchs. League : 0/55 | 5 champs : -1/1395</t>
-  </si>
-  <si>
-    <t>{'hat': 'Sivasspor: 80 coins tournant avec la tête haute !', 'parag': "Sivasspor provoque le choc dans le Futbol Ligi 1 : 80 corners concédés en première mi-temps à l'extérieur lors des 20 derniers matchs, un record sans précédent dans ce championnat et même dans les 5 grands championnats*", 'plot_title': "Nombre de corners concédés en 1ère MT à l'extérieur lors des 20 derniers matchs", 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023', 'datetime': '13-03-2023', 'team_name': 'Sivasspor', 'opp_name': 'Istanbulspor', '-': '-'}</t>
-  </si>
-  <si>
-    <t>#Sivasspor #Istanbulspor #FutbolLigi1 #Record #Choc</t>
-  </si>
-  <si>
-    <t>post_YiRgry2PA.jpg</t>
-  </si>
-  <si>
-    <t>story_YiRgry2PA.jpg</t>
-  </si>
-  <si>
-    <t>p2s3iWCS</t>
+    <t>Premier League</t>
+  </si>
+  <si>
+    <t>Serie A</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Swansea</t>
   </si>
   <si>
     <t>Middlesbrough</t>
   </si>
   <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Nott'm Forest</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
     <t>Stoke</t>
   </si>
   <si>
-    <t>Middlesbrough: Un chiffre faible de 2 buts concédés en première mi-temps à domicile lors des 20 derniers matchs. League : 0/291 | 5 champs : 0/1395</t>
-  </si>
-  <si>
-    <t>{'hat': 'Middlesbrough: Invincibilité inédite à domicile !', 'parag': "Middlesbrough réalise l'incroyable, seulement 2 buts encaissés en première mi-temps lors des 20 dernières rencontres à domicile!*", 'plot_title': 'Nombre de buts concédés en 1ère MT à domicile lors des 20 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023', 'datetime': '14-03-2023', 'team_name': 'Middlesbrough', 'opp_name': 'Stoke', '-': '-'}</t>
-  </si>
-  <si>
-    <t>#Middlesbrough #Stoke #Championship #Invincibilité #Statistiques</t>
-  </si>
-  <si>
-    <t>post_p2s3iWCSH.jpg</t>
-  </si>
-  <si>
-    <t>story_p2s3iWCSH.jpg</t>
-  </si>
-  <si>
-    <t>pxGGNfgO</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>West Brom: Un chiffre faible de 46 tirs cadrés concédés lors des 20 derniers matchs. League : 8/740 | 5 champs : 8/5520</t>
-  </si>
-  <si>
-    <t>{'hat': 'West Brom: un mur infranchissable dans le Championship!', 'parag': "West Brom fait-il une exception en Championship ? La défense de l'équipe impressionne avec ces chiffres de tirs cadrés*", 'plot_title': 'Nombre de tirs cadrés concédés lors des 20 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023', 'datetime': '15-03-2023', 'team_name': 'West Brom', 'opp_name': 'Cardiff', '-': '-'}</t>
-  </si>
-  <si>
-    <t>#WestBrom #Cardiff #Championship #Exception #Impressionnant</t>
-  </si>
-  <si>
-    <t>post_pxGGNfgOA.jpg</t>
-  </si>
-  <si>
-    <t>story_pxGGNfgOA.jpg</t>
-  </si>
-  <si>
-    <t>EN0</t>
-  </si>
-  <si>
-    <t>Premier League</t>
-  </si>
-  <si>
-    <t>fwO33mRj</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Leeds: Un chiffre élevée de 31 buts concédés lors des 10 derniers matchs. League : 1/728 | 5 champs : 1/8591</t>
-  </si>
-  <si>
-    <t>{'hat': 'Leeds: battant un record effrayant en Premier League!', 'parag': "Leeds est en train de battre des records d'inaptitude défensive leur dernière saison : 31 buts encaissés en 10 matchs seulement, un chiffre sans précédent dans la Premier League et dans les 5 grands championnats*", 'plot_title': 'Nombre de buts concédés lors des 10 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023', 'datetime': '18-03-2023', 'team_name': 'Leeds', 'opp_name': 'Wolves', '-': '-'}</t>
-  </si>
-  <si>
-    <t>#Leeds #Wolves #PremierLeague #Record #Défense</t>
-  </si>
-  <si>
-    <t>post_fwO33mRjA.jpg</t>
-  </si>
-  <si>
-    <t>story_fwO33mRjA.jpg</t>
-  </si>
-  <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>La Liga Segunda Division</t>
-  </si>
-  <si>
-    <t>fNqF8kKA</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Oviedo: Un chiffre faible de 57 corners effectués à l'extérieur lors des 20 derniers matchs. League : 2/164 | 5 champs : -1/1395</t>
-  </si>
-  <si>
-    <t>{'hat': 'Oviedo épate: Seulement 57 corners sur la route!', 'parag': "Les Blacks et Blancs d'Oviedo sont à la dérive ailleurs que chez eux : seulement 57 corners effectués sur leurs 20 derniers matchs ! Est-ce un record inédit dans le foot moderne ?*", 'plot_title': "Nombre de corners effectués à l'extérieur lors des 20 derniers matchs", 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023', 'datetime': '18-03-2023', 'team_name': 'Oviedo', 'opp_name': 'Leganes', '-': '-'}</t>
-  </si>
-  <si>
-    <t>#Oviedo #Leganes #LaLigaSegundaDivision #Corners #RecordInédit</t>
-  </si>
-  <si>
-    <t>post_fNqF8kKAA.jpg</t>
-  </si>
-  <si>
-    <t>story_fNqF8kKAA.jpg</t>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Amiens: Un chiffre élevé de 41 hors-jeux commis à l'extérieur lors des 10 derniers matchs. League : 0/2735 | 5 champs : 23/48544</t>
+  </si>
+  <si>
+    <t>Swansea: Un chiffre élevé de 66 % de possession de balle moyenne en première mi-temps lors des 20 derniers matchs. League : 4/5801 | 5 champs : 167/52389</t>
+  </si>
+  <si>
+    <t>Middlesbrough: Un chiffre élevé de 32 buts marqués en seconde mi-temps lors des 20 derniers matchs. League : 1/5805 | 5 champs : 245/52632</t>
+  </si>
+  <si>
+    <t>Crystal Palace: Un chiffre faible de 5 tirs cadrés effectués lors des 5 derniers matchs. League : 4/4235 | 5 champs : 13/58196</t>
+  </si>
+  <si>
+    <t>Burnley: Un chiffre élevé de 74 % de possession de balle moyenne en seconde mi-temps lors des 5 derniers matchs. League : 1/6296 | 5 champs : 6/58066</t>
+  </si>
+  <si>
+    <t>Empoli: Un chiffre élevé de 181 tirs concédés en seconde mi-temps à l'extérieur lors des 20 derniers matchs. League : 8/3187 | 5 champs : 45/45247</t>
+  </si>
+  <si>
+    <t>Nott'm Forest: Un chiffre faible de 16 corners effectués à domicile lors des 10 derniers matchs. League : 0/3954 | 5 champs : 3/52907</t>
+  </si>
+  <si>
+    <t>{'hat': 'Amiens, toujours à la limite du hors-jeu !', 'parag': 'Amiens, le défi du hors-jeu ! Avec une moyenne de 4,1 hors-jeux commis lors des 10 derniers matchs, le club atteint une statistique rarement vue dans les grands championnats.', 'plot_title': 'Nombre de hors-jeux commis lors des 10 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023.', 'datetime': '14/03/2023 - 18h00', 'team_name': 'Paris FC', 'opp_name': 'Amiens', '-': '-'}</t>
+  </si>
+  <si>
+    <t>{'hat': 'Swansea, les rois de la baballe en Championship !', 'parag': 'Lors des 20 derniers matchs, Swansea a dominé ses adversaires avec une possession de balle moyenne de 66%. Une statistique remarquablement rare qui illustre leur domination en Championship.', 'plot_title': 'Possession de balle moyenne en 1ère MT lors des 20 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023.', 'datetime': '14/03/2023 - 20h00', 'team_name': 'Millwall', 'opp_name': 'Swansea', '-': '-'}</t>
+  </si>
+  <si>
+    <t>{'hat': 'Middlesbrough : la pause leur va bien !', 'parag': "Middlesbrough est le spécialiste de la seconde mi-temps en Championship ! Avec 32 buts marqués lors des 20 derniers matchs, l'équipe possède une statistique rarement vue sur les terrains.", 'plot_title': 'Nombre de buts marqués en 2nd MT lors des 20 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023.', 'datetime': '14/03/2023 - 20h00', 'team_name': 'Middlesbrough', 'opp_name': 'Stoke', '-': '-'}</t>
+  </si>
+  <si>
+    <t>{'hat': 'Crystal Palace a des tirs qui manquent de netteté.', 'parag': "Crystal Palace manque clairement de précision devant le but, en effet, l'équipe n'a réussi à cadrer que 5 tirs lors de ses 5 derniers matchs, une statistique rare qui prouve l'inefficacité apparente des attaquants.", 'plot_title': 'Nombre de tirs cadrés effectués lors des 5 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023.', 'datetime': '15/03/2023 - 20h00', 'team_name': 'Brighton', 'opp_name': 'Crystal Palace', '-': '-'}</t>
+  </si>
+  <si>
+    <t>{'hat': 'Burnley : Quand la balle est une amie fidèle…', 'parag': 'La domination de Burnley sur le ballon est fulgurante ! Avec une moyenne de 74% de possession en seconde mi-temps, les Clarets règnent sur le terrain et surpassent même certaines grandes équipes des grands championnats.', 'plot_title': 'Possession de balle moyenne en 2nd MT lors des 5 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023.', 'datetime': '15/03/2023 - 20h00', 'team_name': 'Hull', 'opp_name': 'Burnley', '-': '-'}</t>
+  </si>
+  <si>
+    <t>{'hat': 'Empoli, la défense qui prend feu en seconde mi-temps !', 'parag': "La seconde mi-temps de tous les dangers pour Empoli ! Avec 181 tirs concédés lors des 20 derniers matchs, la défense de l'équipe italienne a du mal à tenir la distance et affiche un chiffre aussi rare qu'inquiétant.", 'plot_title': 'Nombre de tirs concédés en 2nd MT lors des 20 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023.', 'datetime': '17/03/2023 - 20h00', 'team_name': 'Atalanta', 'opp_name': 'Empoli', '-': '-'}</t>
+  </si>
+  <si>
+    <t>{'hat': "Nott'm Forest a perdu le coin!", 'parag': "Nott'm Forest a fait face à un moment difficile en accumulant seulement 16 corners lors des 10 derniers matchs, ce qui est une statistique alarmante qui n'a été vue que trois fois dans les cinq grands championnats.", 'plot_title': 'Nombre de corners effectués lors des 10 derniers matchs', 'footnote': '*: Statistiques entre les saisons 2017-2018 et 2022-2023.', 'datetime': '17/03/2023 - 20h00', 'team_name': "Nott'm Forest", 'opp_name': 'Newcastle', '-': '-'}</t>
+  </si>
+  <si>
+    <t>#Amiens #ParisFC #Division2 #HorsJeu #Statistiques</t>
+  </si>
+  <si>
+    <t>#Swansea #Millwall #Championship #Domination #Statistiques</t>
+  </si>
+  <si>
+    <t>#Middlesbrough #Stoke #Championship #SecondeMiTemps #StatistiquesRares</t>
+  </si>
+  <si>
+    <t>#CrystalPalace #Brighton #PremierLeague #Stats #Inefficacité</t>
+  </si>
+  <si>
+    <t>#Burnley #Hull #Championship #Domination #Possession</t>
+  </si>
+  <si>
+    <t>#Empoli #Atalanta #SerieA #Défense #TirsConcédés</t>
+  </si>
+  <si>
+    <t>#Nott'mForest #Newcastle #PremierLeague #Statistiques #Coin</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/post_tOLqM7TjA.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/post_G2BCOzvIA.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/post_p2s3iWCSH.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/post_2iNthVosA.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/post_2wET7ic9A.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/post_z9Dxs4WSA.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/post_zgsX893TH.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/story_tOLqM7TjA.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/story_G2BCOzvIA.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/story_p2s3iWCSH.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/story_2iNthVosA.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/story_2wET7ic9A.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/story_z9Dxs4WSA.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AntoinePinto/staty_soccer/blob/master/publications/story_zgsX893TH.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,7 +268,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,29 +313,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -655,20 +621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="12" max="13" width="20.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -720,375 +680,332 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44996.583333333343</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44999.75</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2">
-        <v>44995.583333333343</v>
+        <v>44998.75</v>
       </c>
       <c r="M2" s="2">
-        <v>44995.625</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
+        <v>44998.79166666666</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44997.833333333343</v>
-      </c>
-      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
+      <c r="E3" s="2">
+        <v>44999.83333333334</v>
+      </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2">
-        <v>44996.833333333343</v>
+        <v>58</v>
       </c>
       <c r="M3" s="2">
-        <v>44996.875</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
+        <v>44998.875</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44997.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44999.83333333334</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="2">
-        <v>44996.5</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2">
-        <v>44996.541666666657</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
+        <v>44998.875</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44998.708333333343</v>
-      </c>
-      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45000.83333333334</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L5" s="2">
-        <v>44997.708333333343</v>
+        <v>44999.83333333334</v>
       </c>
       <c r="M5" s="2">
-        <v>44997.75</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
+        <v>44999.875</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44999.833333333343</v>
-      </c>
-      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45000.83333333334</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
       <c r="J6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="2">
-        <v>44998.833333333343</v>
+        <v>61</v>
       </c>
       <c r="M6" s="2">
-        <v>44998.875</v>
-      </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
+        <v>44999.875</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45002.83333333334</v>
+      </c>
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45000.833333333343</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
         <v>62</v>
       </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="2">
-        <v>44999.833333333343</v>
-      </c>
       <c r="M7" s="2">
-        <v>44999.875</v>
-      </c>
-      <c r="N7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" t="s">
+        <v>45001.875</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45002.83333333334</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45001.83333333334</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45001.875</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45003.625</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="O8" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="L8" s="2">
-        <v>45002.625</v>
-      </c>
-      <c r="M8" s="2">
-        <v>45002.666666666657</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45003.625</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="2">
-        <v>45002.625</v>
-      </c>
-      <c r="M9" s="2">
-        <v>45002.666666666657</v>
-      </c>
-      <c r="N9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="O2" r:id="rId2"/>
+    <hyperlink ref="N3" r:id="rId3"/>
+    <hyperlink ref="O3" r:id="rId4"/>
+    <hyperlink ref="N4" r:id="rId5"/>
+    <hyperlink ref="O4" r:id="rId6"/>
+    <hyperlink ref="N5" r:id="rId7"/>
+    <hyperlink ref="O5" r:id="rId8"/>
+    <hyperlink ref="N6" r:id="rId9"/>
+    <hyperlink ref="O6" r:id="rId10"/>
+    <hyperlink ref="N7" r:id="rId11"/>
+    <hyperlink ref="O7" r:id="rId12"/>
+    <hyperlink ref="N8" r:id="rId13"/>
+    <hyperlink ref="O8" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>